--- a/DATA FILES/Extracted_Data/ar_1975_constituinte.xlsx
+++ b/DATA FILES/Extracted_Data/ar_1975_constituinte.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,42 +434,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>AVEIRO</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ar</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>25/04/1975</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>CDS</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G1" t="n">
-        <v>36602</v>
-      </c>
-      <c r="H1" t="n">
-        <v>11.0600004196167</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CODIGO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DIST_CONC_FREG</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>T_ELEI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>D_ELEI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SIGLA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>T_DADOS</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VOTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>P_VOTOS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>MANDATOS</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -490,13 +510,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2003</v>
+        <v>36602</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6100000143051147</v>
+        <v>11.0600004196167</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,7 +540,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -529,10 +549,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>12849</v>
+        <v>2003</v>
       </c>
       <c r="H3" t="n">
-        <v>3.880000114440918</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -559,7 +579,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,10 +588,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3269</v>
+        <v>12849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9900000095367432</v>
+        <v>3.880000114440918</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -598,7 +618,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -607,10 +627,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>10479</v>
+        <v>3269</v>
       </c>
       <c r="H5" t="n">
-        <v>3.170000076293945</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -637,7 +657,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -646,13 +666,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>141872</v>
+        <v>10479</v>
       </c>
       <c r="H6" t="n">
-        <v>42.86000061035156</v>
+        <v>3.170000076293945</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -676,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,13 +705,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>105098</v>
+        <v>141872</v>
       </c>
       <c r="H7" t="n">
-        <v>31.75</v>
+        <v>42.86000061035156</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -715,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -724,22 +744,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1694</v>
+        <v>105098</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5099999904632568</v>
+        <v>31.75</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BEJA</t>
+          <t>AVEIRO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -754,7 +774,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -763,10 +783,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2821</v>
+        <v>1694</v>
       </c>
       <c r="H9" t="n">
-        <v>2.180000066757202</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -793,7 +813,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -802,10 +822,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>7036</v>
+        <v>2821</v>
       </c>
       <c r="H10" t="n">
-        <v>5.449999809265137</v>
+        <v>2.180000066757202</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -832,7 +852,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -841,10 +861,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3267</v>
+        <v>7036</v>
       </c>
       <c r="H11" t="n">
-        <v>2.529999971389771</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -871,7 +891,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -880,13 +900,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>50341</v>
+        <v>3267</v>
       </c>
       <c r="H12" t="n">
-        <v>38.97000122070312</v>
+        <v>2.529999971389771</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -910,7 +930,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -919,13 +939,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6787</v>
+        <v>50341</v>
       </c>
       <c r="H13" t="n">
-        <v>5.25</v>
+        <v>38.97000122070312</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -949,7 +969,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -958,13 +978,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>45930</v>
+        <v>6787</v>
       </c>
       <c r="H14" t="n">
-        <v>35.54999923706055</v>
+        <v>5.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -988,7 +1008,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -997,13 +1017,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1590</v>
+        <v>45930</v>
       </c>
       <c r="H15" t="n">
-        <v>1.230000019073486</v>
+        <v>35.54999923706055</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1047,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1036,10 +1056,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1845</v>
+        <v>1590</v>
       </c>
       <c r="H16" t="n">
-        <v>1.429999947547913</v>
+        <v>1.230000019073486</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1047,11 +1067,11 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRAGA</t>
+          <t>BEJA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1066,7 +1086,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1075,13 +1095,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>60754</v>
+        <v>1845</v>
       </c>
       <c r="H17" t="n">
-        <v>18.01000022888184</v>
+        <v>1.429999947547913</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1105,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1114,13 +1134,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2557</v>
+        <v>60754</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7599999904632568</v>
+        <v>18.01000022888184</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1144,7 +1164,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1153,10 +1173,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2654</v>
+        <v>2557</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1183,7 +1203,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1192,10 +1212,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>9829</v>
+        <v>2654</v>
       </c>
       <c r="H20" t="n">
-        <v>2.910000085830688</v>
+        <v>0.7900000214576721</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1222,7 +1242,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1231,10 +1251,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2779</v>
+        <v>9829</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8199999928474426</v>
+        <v>2.910000085830688</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1261,7 +1281,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1270,10 +1290,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>12508</v>
+        <v>2779</v>
       </c>
       <c r="H22" t="n">
-        <v>3.710000038146973</v>
+        <v>0.8199999928474426</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1300,7 +1320,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1309,13 +1329,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>127173</v>
+        <v>12508</v>
       </c>
       <c r="H23" t="n">
-        <v>37.70000076293945</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1339,7 +1359,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1348,13 +1368,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2530</v>
+        <v>127173</v>
       </c>
       <c r="H24" t="n">
-        <v>0.75</v>
+        <v>37.70000076293945</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1378,7 +1398,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1387,13 +1407,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>92481</v>
+        <v>2530</v>
       </c>
       <c r="H25" t="n">
-        <v>27.42000007629395</v>
+        <v>0.75</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1417,7 +1437,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1426,22 +1446,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2889</v>
+        <v>92481</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8600000143051147</v>
+        <v>27.42000007629395</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRAGANÇA</t>
+          <t>BRAGA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1456,7 +1476,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1465,10 +1485,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>13533</v>
+        <v>2889</v>
       </c>
       <c r="H27" t="n">
-        <v>13.46000003814697</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -1495,7 +1515,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1504,10 +1524,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1612</v>
+        <v>13533</v>
       </c>
       <c r="H28" t="n">
-        <v>1.600000023841858</v>
+        <v>13.46000003814697</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1534,7 +1554,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1543,10 +1563,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3667</v>
+        <v>1612</v>
       </c>
       <c r="H29" t="n">
-        <v>3.650000095367432</v>
+        <v>1.600000023841858</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1573,7 +1593,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1582,10 +1602,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2731</v>
+        <v>3667</v>
       </c>
       <c r="H30" t="n">
-        <v>2.720000028610229</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1612,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1621,13 +1641,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>43220</v>
+        <v>2731</v>
       </c>
       <c r="H31" t="n">
-        <v>43</v>
+        <v>2.720000028610229</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1651,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1660,13 +1680,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1009</v>
+        <v>43220</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -1690,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1699,22 +1719,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>24789</v>
+        <v>1009</v>
       </c>
       <c r="H33" t="n">
-        <v>24.65999984741211</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>50000</v>
+        <v>40000</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CASTELO BRANCO</t>
+          <t>BRAGANÇA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1729,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1738,13 +1758,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>9743</v>
+        <v>24789</v>
       </c>
       <c r="H34" t="n">
-        <v>6.360000133514404</v>
+        <v>24.65999984741211</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1768,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1777,10 +1797,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1600</v>
+        <v>9743</v>
       </c>
       <c r="H35" t="n">
-        <v>1.039999961853027</v>
+        <v>6.360000133514404</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1807,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1816,10 +1836,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3541</v>
+        <v>1600</v>
       </c>
       <c r="H36" t="n">
-        <v>2.309999942779541</v>
+        <v>1.039999961853027</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1846,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1855,10 +1875,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>6020</v>
+        <v>3541</v>
       </c>
       <c r="H37" t="n">
-        <v>3.930000066757202</v>
+        <v>2.309999942779541</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1885,7 +1905,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1894,10 +1914,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3350</v>
+        <v>6020</v>
       </c>
       <c r="H38" t="n">
-        <v>2.190000057220459</v>
+        <v>3.930000066757202</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -1924,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1933,10 +1953,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8628</v>
+        <v>3350</v>
       </c>
       <c r="H39" t="n">
-        <v>5.630000114440918</v>
+        <v>2.190000057220459</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -1963,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1972,13 +1992,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>37206</v>
+        <v>8628</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28000068664551</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2002,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2011,13 +2031,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1148</v>
+        <v>37206</v>
       </c>
       <c r="H41" t="n">
-        <v>0.75</v>
+        <v>24.28000068664551</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2041,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2050,13 +2070,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>63591</v>
+        <v>1148</v>
       </c>
       <c r="H42" t="n">
-        <v>41.5099983215332</v>
+        <v>0.75</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2080,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2089,22 +2109,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1154</v>
+        <v>63591</v>
       </c>
       <c r="H43" t="n">
-        <v>0.75</v>
+        <v>41.5099983215332</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>60000</v>
+        <v>50000</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COIMBRA</t>
+          <t>CASTELO BRANCO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2119,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2128,10 +2148,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>12187</v>
+        <v>1154</v>
       </c>
       <c r="H44" t="n">
-        <v>4.610000133514404</v>
+        <v>0.75</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2158,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2167,10 +2187,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2041</v>
+        <v>12187</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7699999809265137</v>
+        <v>4.610000133514404</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2197,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2206,10 +2226,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3690</v>
+        <v>2041</v>
       </c>
       <c r="H46" t="n">
-        <v>1.399999976158142</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2236,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2245,10 +2265,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>11718</v>
+        <v>3690</v>
       </c>
       <c r="H47" t="n">
-        <v>4.440000057220459</v>
+        <v>1.399999976158142</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -2275,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2284,10 +2304,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4419</v>
+        <v>11718</v>
       </c>
       <c r="H48" t="n">
-        <v>1.669999957084656</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2314,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2323,13 +2343,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>15150</v>
+        <v>4419</v>
       </c>
       <c r="H49" t="n">
-        <v>5.739999771118164</v>
+        <v>1.669999957084656</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2353,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2362,13 +2382,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>71942</v>
+        <v>15150</v>
       </c>
       <c r="H50" t="n">
-        <v>27.23999977111816</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2392,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2401,13 +2421,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2514</v>
+        <v>71942</v>
       </c>
       <c r="H51" t="n">
-        <v>0.949999988079071</v>
+        <v>27.23999977111816</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -2431,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2440,22 +2460,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>114109</v>
+        <v>2514</v>
       </c>
       <c r="H52" t="n">
-        <v>43.20000076293945</v>
+        <v>0.949999988079071</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>70000</v>
+        <v>60000</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ÉVORA</t>
+          <t>COIMBRA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2470,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2479,13 +2499,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3586</v>
+        <v>114109</v>
       </c>
       <c r="H53" t="n">
-        <v>2.819999933242798</v>
+        <v>43.20000076293945</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2509,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2518,10 +2538,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1628</v>
+        <v>3586</v>
       </c>
       <c r="H54" t="n">
-        <v>1.279999971389771</v>
+        <v>2.819999933242798</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -2548,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2557,10 +2577,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>9970</v>
+        <v>1628</v>
       </c>
       <c r="H55" t="n">
-        <v>7.840000152587891</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -2587,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2596,13 +2616,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>47123</v>
+        <v>9970</v>
       </c>
       <c r="H56" t="n">
-        <v>37.06999969482422</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2626,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2635,13 +2655,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8718</v>
+        <v>47123</v>
       </c>
       <c r="H57" t="n">
-        <v>6.860000133514404</v>
+        <v>37.06999969482422</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2665,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2674,13 +2694,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>48163</v>
+        <v>8718</v>
       </c>
       <c r="H58" t="n">
-        <v>37.88999938964844</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2704,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2713,13 +2733,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>768</v>
+        <v>48163</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6000000238418579</v>
+        <v>37.88999938964844</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -2743,7 +2763,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2752,10 +2772,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1093</v>
+        <v>768</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8600000143051147</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2763,11 +2783,11 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>80000</v>
+        <v>70000</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FARO</t>
+          <t>ÉVORA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2782,7 +2802,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2791,10 +2811,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6889</v>
+        <v>1093</v>
       </c>
       <c r="H61" t="n">
-        <v>3.359999895095825</v>
+        <v>0.8600000143051147</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -2821,7 +2841,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2830,10 +2850,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1577</v>
+        <v>6889</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7699999809265137</v>
+        <v>3.359999895095825</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -2860,7 +2880,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2869,10 +2889,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3607</v>
+        <v>1577</v>
       </c>
       <c r="H63" t="n">
-        <v>1.759999990463257</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -2899,7 +2919,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2908,13 +2928,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>19496</v>
+        <v>3607</v>
       </c>
       <c r="H64" t="n">
-        <v>9.489999771118164</v>
+        <v>1.759999990463257</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2938,7 +2958,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2947,13 +2967,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3275</v>
+        <v>19496</v>
       </c>
       <c r="H65" t="n">
-        <v>1.590000033378601</v>
+        <v>9.489999771118164</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2977,7 +2997,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2986,13 +3006,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>25282</v>
+        <v>3275</v>
       </c>
       <c r="H66" t="n">
-        <v>12.3100004196167</v>
+        <v>1.590000033378601</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3016,7 +3036,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3025,10 +3045,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>28595</v>
+        <v>25282</v>
       </c>
       <c r="H67" t="n">
-        <v>13.93000030517578</v>
+        <v>12.3100004196167</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -3055,7 +3075,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3064,13 +3084,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>93263</v>
+        <v>28595</v>
       </c>
       <c r="H68" t="n">
-        <v>45.41999816894531</v>
+        <v>13.93000030517578</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -3094,7 +3114,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3103,13 +3123,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2194</v>
+        <v>93263</v>
       </c>
       <c r="H69" t="n">
-        <v>1.070000052452087</v>
+        <v>45.41999816894531</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -3133,7 +3153,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3142,10 +3162,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2303</v>
+        <v>2194</v>
       </c>
       <c r="H70" t="n">
-        <v>1.120000004768372</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3153,11 +3173,11 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>90000</v>
+        <v>80000</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GUARDA</t>
+          <t>FARO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3172,7 +3192,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3181,13 +3201,13 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>24731</v>
+        <v>2303</v>
       </c>
       <c r="H71" t="n">
-        <v>19.47999954223633</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3211,7 +3231,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3220,13 +3240,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1727</v>
+        <v>24731</v>
       </c>
       <c r="H72" t="n">
-        <v>1.360000014305115</v>
+        <v>19.47999954223633</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3250,7 +3270,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3259,10 +3279,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4550</v>
+        <v>1727</v>
       </c>
       <c r="H73" t="n">
-        <v>3.579999923706055</v>
+        <v>1.360000014305115</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3289,7 +3309,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3298,10 +3318,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3717</v>
+        <v>4550</v>
       </c>
       <c r="H74" t="n">
-        <v>2.930000066757202</v>
+        <v>3.579999923706055</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3328,7 +3348,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3337,13 +3357,13 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>42322</v>
+        <v>3717</v>
       </c>
       <c r="H75" t="n">
-        <v>33.34000015258789</v>
+        <v>2.930000066757202</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3367,7 +3387,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3376,13 +3396,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1637</v>
+        <v>42322</v>
       </c>
       <c r="H76" t="n">
-        <v>1.289999961853027</v>
+        <v>33.34000015258789</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3406,7 +3426,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3415,27 +3435,27 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>35796</v>
+        <v>1637</v>
       </c>
       <c r="H77" t="n">
-        <v>28.20000076293945</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LEIRIA</t>
+          <t>GUARDA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>arc</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3445,7 +3465,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3454,13 +3474,13 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>16322</v>
+        <v>35796</v>
       </c>
       <c r="H78" t="n">
-        <v>6.760000228881836</v>
+        <v>28.20000076293945</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -3484,7 +3504,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3493,13 +3513,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1896</v>
+        <v>16322</v>
       </c>
       <c r="H79" t="n">
-        <v>0.7799999713897705</v>
+        <v>6.760000228881836</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3523,7 +3543,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3532,10 +3552,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3021</v>
+        <v>1896</v>
       </c>
       <c r="H80" t="n">
-        <v>1.25</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -3562,7 +3582,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3571,10 +3591,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>979</v>
+        <v>3021</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4099999964237213</v>
+        <v>1.25</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -3601,7 +3621,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3610,10 +3630,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8225</v>
+        <v>979</v>
       </c>
       <c r="H82" t="n">
-        <v>3.400000095367432</v>
+        <v>0.4099999964237213</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -3640,7 +3660,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3649,10 +3669,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2763</v>
+        <v>8225</v>
       </c>
       <c r="H83" t="n">
-        <v>1.139999985694885</v>
+        <v>3.400000095367432</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -3679,7 +3699,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3688,10 +3708,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>15525</v>
+        <v>2763</v>
       </c>
       <c r="H84" t="n">
-        <v>6.429999828338623</v>
+        <v>1.139999985694885</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -3718,7 +3738,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3727,13 +3747,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>85924</v>
+        <v>15525</v>
       </c>
       <c r="H85" t="n">
-        <v>35.56999969482422</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3757,7 +3777,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3766,10 +3786,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>80180</v>
+        <v>85924</v>
       </c>
       <c r="H86" t="n">
-        <v>33.18999862670898</v>
+        <v>35.56999969482422</v>
       </c>
       <c r="I86" t="n">
         <v>5</v>
@@ -3796,7 +3816,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3805,27 +3825,27 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2588</v>
+        <v>80180</v>
       </c>
       <c r="H87" t="n">
-        <v>1.070000052452087</v>
+        <v>33.18999862670898</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>110000</v>
+        <v>100000</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>LISBOA</t>
+          <t>LEIRIA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>arc</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3835,7 +3855,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3844,13 +3864,13 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>60691</v>
+        <v>2588</v>
       </c>
       <c r="H88" t="n">
-        <v>4.78000020980835</v>
+        <v>1.070000052452087</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3874,7 +3894,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3883,13 +3903,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5716</v>
+        <v>60691</v>
       </c>
       <c r="H89" t="n">
-        <v>0.449999988079071</v>
+        <v>4.78000020980835</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -3913,7 +3933,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3922,10 +3942,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>15956</v>
+        <v>5716</v>
       </c>
       <c r="H90" t="n">
-        <v>1.259999990463257</v>
+        <v>0.449999988079071</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -3952,7 +3972,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3961,10 +3981,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3896</v>
+        <v>15956</v>
       </c>
       <c r="H91" t="n">
-        <v>0.3100000023841858</v>
+        <v>1.259999990463257</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -3991,7 +4011,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4000,13 +4020,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>52339</v>
+        <v>3896</v>
       </c>
       <c r="H92" t="n">
-        <v>4.119999885559082</v>
+        <v>0.3100000023841858</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4030,7 +4050,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4039,13 +4059,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>13732</v>
+        <v>52339</v>
       </c>
       <c r="H93" t="n">
-        <v>1.080000042915344</v>
+        <v>4.119999885559082</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -4069,7 +4089,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4078,13 +4098,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>240095</v>
+        <v>13732</v>
       </c>
       <c r="H94" t="n">
-        <v>18.90999984741211</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="I94" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4108,7 +4128,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4117,13 +4137,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>190004</v>
+        <v>240095</v>
       </c>
       <c r="H95" t="n">
-        <v>14.97000026702881</v>
+        <v>18.90999984741211</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -4147,7 +4167,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4156,13 +4176,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>9682</v>
+        <v>190004</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7599999904632568</v>
+        <v>14.97000026702881</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -4186,7 +4206,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4195,13 +4215,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>583741</v>
+        <v>9682</v>
       </c>
       <c r="H97" t="n">
-        <v>45.97999954223633</v>
+        <v>0.7599999904632568</v>
       </c>
       <c r="I97" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4225,7 +4245,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4234,22 +4254,22 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>21294</v>
+        <v>583741</v>
       </c>
       <c r="H98" t="n">
-        <v>1.679999947547913</v>
+        <v>45.97999954223633</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>120000</v>
+        <v>110000</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PORTALEGRE</t>
+          <t>LISBOA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4264,7 +4284,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4273,13 +4293,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4040</v>
+        <v>21294</v>
       </c>
       <c r="H99" t="n">
-        <v>3.950000047683716</v>
+        <v>1.679999947547913</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -4303,7 +4323,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4312,10 +4332,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1408</v>
+        <v>4040</v>
       </c>
       <c r="H100" t="n">
-        <v>1.379999995231628</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -4342,7 +4362,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4351,10 +4371,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4637</v>
+        <v>1408</v>
       </c>
       <c r="H101" t="n">
-        <v>4.53000020980835</v>
+        <v>1.379999995231628</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -4381,7 +4401,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4390,10 +4410,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1320</v>
+        <v>4637</v>
       </c>
       <c r="H102" t="n">
-        <v>1.289999961853027</v>
+        <v>4.53000020980835</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -4420,7 +4440,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4429,13 +4449,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>17920</v>
+        <v>1320</v>
       </c>
       <c r="H103" t="n">
-        <v>17.52000045776367</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -4459,7 +4479,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4468,13 +4488,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>10075</v>
+        <v>17920</v>
       </c>
       <c r="H104" t="n">
-        <v>9.850000381469727</v>
+        <v>17.52000045776367</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4498,7 +4518,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4507,10 +4527,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>593</v>
+        <v>10075</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5799999833106995</v>
+        <v>9.850000381469727</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -4537,7 +4557,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4546,13 +4566,13 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>53604</v>
+        <v>593</v>
       </c>
       <c r="H106" t="n">
-        <v>52.41999816894531</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -4576,7 +4596,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4585,22 +4605,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1220</v>
+        <v>53604</v>
       </c>
       <c r="H107" t="n">
-        <v>1.190000057220459</v>
+        <v>52.41999816894531</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PORTO</t>
+          <t>PORTALEGRE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4615,7 +4635,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4624,13 +4644,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>74685</v>
+        <v>1220</v>
       </c>
       <c r="H108" t="n">
-        <v>8.920000076293945</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4654,7 +4674,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4663,13 +4683,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>7118</v>
+        <v>74685</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8500000238418579</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -4693,7 +4713,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4702,10 +4722,10 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6017</v>
+        <v>7118</v>
       </c>
       <c r="H110" t="n">
-        <v>0.7200000286102295</v>
+        <v>0.8500000238418579</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -4732,7 +4752,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4741,10 +4761,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4731</v>
+        <v>6017</v>
       </c>
       <c r="H111" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.7200000286102295</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -4771,7 +4791,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4780,13 +4800,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>21609</v>
+        <v>4731</v>
       </c>
       <c r="H112" t="n">
-        <v>2.579999923706055</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -4810,7 +4830,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4819,13 +4839,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8331</v>
+        <v>21609</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9900000095367432</v>
+        <v>2.579999923706055</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -4849,7 +4869,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4858,13 +4878,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>55794</v>
+        <v>8331</v>
       </c>
       <c r="H114" t="n">
-        <v>6.659999847412109</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -4888,7 +4908,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4897,13 +4917,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>246311</v>
+        <v>55794</v>
       </c>
       <c r="H115" t="n">
-        <v>29.40999984741211</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="I115" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116">
@@ -4927,7 +4947,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4936,13 +4956,13 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4710</v>
+        <v>246311</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5600000023841858</v>
+        <v>29.40999984741211</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117">
@@ -4966,7 +4986,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4975,13 +4995,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>356377</v>
+        <v>4710</v>
       </c>
       <c r="H117" t="n">
-        <v>42.54999923706055</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="I117" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5005,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5014,13 +5034,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3059</v>
+        <v>356377</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3700000047683716</v>
+        <v>42.54999923706055</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
@@ -5044,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5053,10 +5073,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5279</v>
+        <v>3059</v>
       </c>
       <c r="H119" t="n">
-        <v>0.6299999952316284</v>
+        <v>0.3700000047683716</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -5064,11 +5084,11 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>140000</v>
+        <v>130000</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SANTARÉM</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5083,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5092,10 +5112,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>12748</v>
+        <v>5279</v>
       </c>
       <c r="H120" t="n">
-        <v>4.320000171661377</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -5122,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5131,10 +5151,10 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>7009</v>
+        <v>12748</v>
       </c>
       <c r="H121" t="n">
-        <v>2.380000114440918</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -5161,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5170,10 +5190,10 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>12056</v>
+        <v>7009</v>
       </c>
       <c r="H122" t="n">
-        <v>4.090000152587891</v>
+        <v>2.380000114440918</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -5200,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5209,10 +5229,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4619</v>
+        <v>12056</v>
       </c>
       <c r="H123" t="n">
-        <v>1.570000052452087</v>
+        <v>4.090000152587891</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -5239,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5248,13 +5268,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>44515</v>
+        <v>4619</v>
       </c>
       <c r="H124" t="n">
-        <v>15.09000015258789</v>
+        <v>1.570000052452087</v>
       </c>
       <c r="I124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5278,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5287,13 +5307,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>55440</v>
+        <v>44515</v>
       </c>
       <c r="H125" t="n">
-        <v>18.79000091552734</v>
+        <v>15.09000015258789</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -5317,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5326,13 +5346,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3425</v>
+        <v>55440</v>
       </c>
       <c r="H126" t="n">
-        <v>1.159999966621399</v>
+        <v>18.79000091552734</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -5356,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5365,13 +5385,13 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>126630</v>
+        <v>3425</v>
       </c>
       <c r="H127" t="n">
-        <v>42.93000030517578</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="I127" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5395,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5404,22 +5424,22 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3048</v>
+        <v>126630</v>
       </c>
       <c r="H128" t="n">
-        <v>1.029999971389771</v>
+        <v>42.93000030517578</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SETÚBAL</t>
+          <t>SANTARÉM</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5434,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5443,10 +5463,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5853</v>
+        <v>3048</v>
       </c>
       <c r="H129" t="n">
-        <v>1.549999952316284</v>
+        <v>1.029999971389771</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -5473,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5482,10 +5502,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2007</v>
+        <v>5853</v>
       </c>
       <c r="H130" t="n">
-        <v>0.5299999713897705</v>
+        <v>1.549999952316284</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -5512,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5521,10 +5541,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6642</v>
+        <v>2007</v>
       </c>
       <c r="H131" t="n">
-        <v>1.759999990463257</v>
+        <v>0.5299999713897705</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -5551,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5560,10 +5580,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1229</v>
+        <v>6642</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3300000131130219</v>
+        <v>1.759999990463257</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -5590,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5599,13 +5619,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>22733</v>
+        <v>1229</v>
       </c>
       <c r="H133" t="n">
-        <v>6.03000020980835</v>
+        <v>0.3300000131130219</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5629,7 +5649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5638,13 +5658,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3864</v>
+        <v>22733</v>
       </c>
       <c r="H134" t="n">
-        <v>1.019999980926514</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5668,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5677,13 +5697,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>142559</v>
+        <v>3864</v>
       </c>
       <c r="H135" t="n">
-        <v>37.79000091552734</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="I135" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5707,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5716,13 +5736,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>21633</v>
+        <v>142559</v>
       </c>
       <c r="H136" t="n">
-        <v>5.730000019073486</v>
+        <v>37.79000091552734</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -5746,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5755,13 +5775,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>143917</v>
+        <v>21633</v>
       </c>
       <c r="H137" t="n">
-        <v>38.15000152587891</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="I137" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -5785,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5794,13 +5814,13 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>944</v>
+        <v>143917</v>
       </c>
       <c r="H138" t="n">
-        <v>0.25</v>
+        <v>38.15000152587891</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -5824,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5833,10 +5853,10 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>5053</v>
+        <v>944</v>
       </c>
       <c r="H139" t="n">
-        <v>1.340000033378601</v>
+        <v>0.25</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -5844,11 +5864,11 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>160000</v>
+        <v>150000</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>VIANA DO CASTELO</t>
+          <t>SETÚBAL</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5863,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5872,13 +5892,13 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>20313</v>
+        <v>5053</v>
       </c>
       <c r="H140" t="n">
-        <v>14.51000022888184</v>
+        <v>1.340000033378601</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5902,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5911,13 +5931,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1523</v>
+        <v>20313</v>
       </c>
       <c r="H141" t="n">
-        <v>1.090000033378601</v>
+        <v>14.51000022888184</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5941,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5950,10 +5970,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2363</v>
+        <v>1523</v>
       </c>
       <c r="H142" t="n">
-        <v>1.690000057220459</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -5980,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5989,10 +6009,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9891</v>
+        <v>2363</v>
       </c>
       <c r="H143" t="n">
-        <v>7.059999942779541</v>
+        <v>1.690000057220459</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -6019,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6028,10 +6048,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2159</v>
+        <v>9891</v>
       </c>
       <c r="H144" t="n">
-        <v>1.539999961853027</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -6058,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6067,10 +6087,10 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5336</v>
+        <v>2159</v>
       </c>
       <c r="H145" t="n">
-        <v>3.809999942779541</v>
+        <v>1.539999961853027</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -6097,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6106,13 +6126,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>50426</v>
+        <v>5336</v>
       </c>
       <c r="H146" t="n">
-        <v>36.02000045776367</v>
+        <v>3.809999942779541</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6136,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6145,13 +6165,13 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1566</v>
+        <v>50426</v>
       </c>
       <c r="H147" t="n">
-        <v>1.120000004768372</v>
+        <v>36.02000045776367</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148">
@@ -6175,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6184,22 +6204,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>34224</v>
+        <v>1566</v>
       </c>
       <c r="H148" t="n">
-        <v>24.45000076293945</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>VILA REAL</t>
+          <t>VIANA DO CASTELO</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6214,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6223,13 +6243,13 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>10065</v>
+        <v>34224</v>
       </c>
       <c r="H149" t="n">
-        <v>7.159999847412109</v>
+        <v>24.45000076293945</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
@@ -6253,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6262,10 +6282,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3194</v>
+        <v>10065</v>
       </c>
       <c r="H150" t="n">
-        <v>2.269999980926514</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -6292,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6301,10 +6321,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3227</v>
+        <v>3194</v>
       </c>
       <c r="H151" t="n">
-        <v>2.299999952316284</v>
+        <v>2.269999980926514</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -6331,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6340,10 +6360,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4011</v>
+        <v>3227</v>
       </c>
       <c r="H152" t="n">
-        <v>2.849999904632568</v>
+        <v>2.299999952316284</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -6370,7 +6390,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6379,13 +6399,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>64339</v>
+        <v>4011</v>
       </c>
       <c r="H153" t="n">
-        <v>45.79000091552734</v>
+        <v>2.849999904632568</v>
       </c>
       <c r="I153" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -6409,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6418,13 +6438,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1523</v>
+        <v>64339</v>
       </c>
       <c r="H154" t="n">
-        <v>1.080000042915344</v>
+        <v>45.79000091552734</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155">
@@ -6448,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6457,22 +6477,22 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>38140</v>
+        <v>1523</v>
       </c>
       <c r="H155" t="n">
-        <v>27.13999938964844</v>
+        <v>1.080000042915344</v>
       </c>
       <c r="I155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>180000</v>
+        <v>170000</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>VISEU</t>
+          <t>VILA REAL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6487,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6496,10 +6516,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>40422</v>
+        <v>38140</v>
       </c>
       <c r="H156" t="n">
-        <v>17.19000053405762</v>
+        <v>27.13999938964844</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -6526,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6535,13 +6555,13 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5432</v>
+        <v>40422</v>
       </c>
       <c r="H157" t="n">
-        <v>2.309999942779541</v>
+        <v>17.19000053405762</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -6565,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6574,10 +6594,10 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>9492</v>
+        <v>5432</v>
       </c>
       <c r="H158" t="n">
-        <v>4.039999961853027</v>
+        <v>2.309999942779541</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -6604,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6613,10 +6633,10 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>5380</v>
+        <v>9492</v>
       </c>
       <c r="H159" t="n">
-        <v>2.289999961853027</v>
+        <v>4.039999961853027</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -6643,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6652,13 +6672,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>102922</v>
+        <v>5380</v>
       </c>
       <c r="H160" t="n">
-        <v>43.77999877929688</v>
+        <v>2.289999961853027</v>
       </c>
       <c r="I160" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -6682,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6691,13 +6711,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2145</v>
+        <v>102922</v>
       </c>
       <c r="H161" t="n">
-        <v>0.9100000262260437</v>
+        <v>43.77999877929688</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
@@ -6721,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6730,22 +6750,22 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>50473</v>
+        <v>2145</v>
       </c>
       <c r="H162" t="n">
-        <v>21.46999931335449</v>
+        <v>0.9100000262260437</v>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>190000</v>
+        <v>180000</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>VISEU</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6760,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6769,13 +6789,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2754</v>
+        <v>50473</v>
       </c>
       <c r="H163" t="n">
-        <v>6.090000152587891</v>
+        <v>21.46999931335449</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -6784,7 +6804,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6823,7 +6843,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6838,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6847,10 +6867,10 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>492</v>
+        <v>2754</v>
       </c>
       <c r="H165" t="n">
-        <v>1.090000033378601</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6862,7 +6882,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6901,7 +6921,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6916,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6925,10 +6945,10 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>541</v>
+        <v>492</v>
       </c>
       <c r="H167" t="n">
-        <v>1.200000047683716</v>
+        <v>1.090000033378601</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -6940,7 +6960,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6979,7 +6999,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6994,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7003,10 +7023,10 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1069</v>
+        <v>541</v>
       </c>
       <c r="H169" t="n">
-        <v>2.369999885559082</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -7018,7 +7038,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -7057,7 +7077,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7072,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7081,13 +7101,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>28365</v>
+        <v>1069</v>
       </c>
       <c r="H171" t="n">
-        <v>62.7599983215332</v>
+        <v>2.369999885559082</v>
       </c>
       <c r="I171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -7096,7 +7116,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -7135,7 +7155,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>São Jorge</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7150,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7159,13 +7179,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>10383</v>
+        <v>28365</v>
       </c>
       <c r="H173" t="n">
-        <v>22.96999931335449</v>
+        <v>62.7599983215332</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -7174,7 +7194,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Central</t>
+          <t>São Jorge</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7209,11 +7229,11 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>200000</v>
+        <v>190000</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Central</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7228,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7237,10 +7257,10 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>716</v>
+        <v>10383</v>
       </c>
       <c r="H175" t="n">
-        <v>3.119999885559082</v>
+        <v>22.96999931335449</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -7252,7 +7272,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7291,7 +7311,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7306,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7315,10 +7335,10 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>542</v>
+        <v>716</v>
       </c>
       <c r="H177" t="n">
-        <v>2.359999895095825</v>
+        <v>3.119999885559082</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -7330,7 +7350,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7369,7 +7389,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7384,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7393,13 +7413,13 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>15493</v>
+        <v>542</v>
       </c>
       <c r="H179" t="n">
-        <v>67.55000305175781</v>
+        <v>2.359999895095825</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -7408,7 +7428,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7447,7 +7467,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Corvo</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7462,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7471,13 +7491,13 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5276</v>
+        <v>15493</v>
       </c>
       <c r="H181" t="n">
-        <v>23</v>
+        <v>67.55000305175781</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -7486,7 +7506,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Ocidental</t>
+          <t>Corvo</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7521,11 +7541,11 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>210000</v>
+        <v>200000</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>AÇORES - Grupo Ocidental</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7540,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7549,10 +7569,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2364</v>
+        <v>5276</v>
       </c>
       <c r="H183" t="n">
-        <v>3.089999914169312</v>
+        <v>23</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -7564,7 +7584,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7603,7 +7623,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7618,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7627,10 +7647,10 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2073</v>
+        <v>2364</v>
       </c>
       <c r="H185" t="n">
-        <v>2.710000038146973</v>
+        <v>3.089999914169312</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -7642,7 +7662,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7681,7 +7701,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7696,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7705,10 +7725,10 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>560</v>
+        <v>2073</v>
       </c>
       <c r="H187" t="n">
-        <v>0.7300000190734863</v>
+        <v>2.710000038146973</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -7720,7 +7740,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7759,7 +7779,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7774,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7783,10 +7803,10 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1134</v>
+        <v>560</v>
       </c>
       <c r="H189" t="n">
-        <v>1.480000019073486</v>
+        <v>0.7300000190734863</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -7798,7 +7818,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7837,7 +7857,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7852,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7861,13 +7881,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>41930</v>
+        <v>1134</v>
       </c>
       <c r="H191" t="n">
-        <v>54.81000137329102</v>
+        <v>1.480000019073486</v>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -7876,7 +7896,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7915,7 +7935,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AÇORES - Grupo Oriental</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7930,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7939,13 +7959,13 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>23247</v>
+        <v>41930</v>
       </c>
       <c r="H193" t="n">
-        <v>30.38999938964844</v>
+        <v>54.81000137329102</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -7954,7 +7974,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>São Miguel</t>
+          <t>AÇORES - Grupo Oriental</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7989,11 +8009,11 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MADEIRA</t>
+          <t>São Miguel</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -8008,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8017,13 +8037,13 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>12669</v>
+        <v>23247</v>
       </c>
       <c r="H195" t="n">
-        <v>10.02999973297119</v>
+        <v>30.38999938964844</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -8047,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8056,10 +8076,10 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1468</v>
+        <v>12669</v>
       </c>
       <c r="H196" t="n">
-        <v>1.159999966621399</v>
+        <v>10.02999973297119</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -8086,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8095,10 +8115,10 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1668</v>
+        <v>1468</v>
       </c>
       <c r="H197" t="n">
-        <v>1.320000052452087</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -8125,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8134,10 +8154,10 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2086</v>
+        <v>1668</v>
       </c>
       <c r="H198" t="n">
-        <v>1.649999976158142</v>
+        <v>1.320000052452087</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -8164,7 +8184,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8173,13 +8193,13 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>78200</v>
+        <v>2086</v>
       </c>
       <c r="H199" t="n">
-        <v>61.90000152587891</v>
+        <v>1.649999976158142</v>
       </c>
       <c r="I199" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -8203,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8212,22 +8232,22 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>24737</v>
+        <v>78200</v>
       </c>
       <c r="H200" t="n">
-        <v>19.57999992370605</v>
+        <v>61.90000152587891</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>230000</v>
+        <v>220000</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PORTUGAL</t>
+          <t>MADEIRA</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8242,7 +8262,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8251,13 +8271,13 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>434879</v>
+        <v>24737</v>
       </c>
       <c r="H201" t="n">
-        <v>7.610000133514404</v>
+        <v>19.57999992370605</v>
       </c>
       <c r="I201" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -8281,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8290,13 +8310,13 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>33185</v>
+        <v>434879</v>
       </c>
       <c r="H202" t="n">
-        <v>0.5799999833106995</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203">
@@ -8320,7 +8340,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>FSP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8329,10 +8349,10 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>66307</v>
+        <v>33185</v>
       </c>
       <c r="H203" t="n">
-        <v>1.159999966621399</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -8359,7 +8379,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>LCI</t>
+          <t>FSP</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8368,10 +8388,10 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>10835</v>
+        <v>66307</v>
       </c>
       <c r="H204" t="n">
-        <v>0.1899999976158142</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -8398,7 +8418,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>LCI</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8407,13 +8427,13 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>236318</v>
+        <v>10835</v>
       </c>
       <c r="H205" t="n">
-        <v>4.139999866485596</v>
+        <v>0.1899999976158142</v>
       </c>
       <c r="I205" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8437,7 +8457,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>MES</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8446,13 +8466,13 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>58248</v>
+        <v>236318</v>
       </c>
       <c r="H206" t="n">
-        <v>1.019999980926514</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -8476,7 +8496,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>MES</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8485,13 +8505,13 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>711935</v>
+        <v>58248</v>
       </c>
       <c r="H207" t="n">
-        <v>12.46000003814697</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="I207" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -8515,7 +8535,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>PCP</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8524,13 +8544,13 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1507282</v>
+        <v>711935</v>
       </c>
       <c r="H208" t="n">
-        <v>26.38999938964844</v>
+        <v>12.46000003814697</v>
       </c>
       <c r="I208" t="n">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209">
@@ -8554,7 +8574,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PPD</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8563,13 +8583,13 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>32526</v>
+        <v>1507282</v>
       </c>
       <c r="H209" t="n">
-        <v>0.5699999928474426</v>
+        <v>26.38999938964844</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210">
@@ -8593,7 +8613,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8602,13 +8622,13 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2162972</v>
+        <v>32526</v>
       </c>
       <c r="H210" t="n">
-        <v>37.86999893188477</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="I210" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -8632,7 +8652,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>PUP</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8641,13 +8661,13 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>13138</v>
+        <v>2162972</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2300000041723251</v>
+        <v>37.86999893188477</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="212">
@@ -8671,7 +8691,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>UDP</t>
+          <t>PUP</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8680,13 +8700,13 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>44877</v>
+        <v>13138</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7900000214576721</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -8710,7 +8730,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ADIM</t>
+          <t>UDP</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8719,10 +8739,10 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1622</v>
+        <v>44877</v>
       </c>
       <c r="H213" t="n">
-        <v>0.02999999932944775</v>
+        <v>0.7900000214576721</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -8749,7 +8769,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>ADIM</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8758,22 +8778,22 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1030</v>
+        <v>1622</v>
       </c>
       <c r="H214" t="n">
-        <v>0.01999999955296516</v>
+        <v>0.02999999932944775</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>750010</v>
+        <v>230000</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MACAU</t>
+          <t>PORTUGAL</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8788,7 +8808,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ADIM</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8797,13 +8817,13 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1622</v>
+        <v>1030</v>
       </c>
       <c r="H215" t="n">
-        <v>56.40000152587891</v>
+        <v>0.01999999955296516</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -8827,7 +8847,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>CDM</t>
+          <t>ADIM</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8836,22 +8856,22 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1030</v>
+        <v>1622</v>
       </c>
       <c r="H216" t="n">
-        <v>35.81000137329102</v>
+        <v>56.40000152587891</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>750020</v>
+        <v>750010</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MOÇAMBIQUE</t>
+          <t>MACAU</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8866,7 +8886,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>CDM</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8875,22 +8895,22 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2496</v>
+        <v>1030</v>
       </c>
       <c r="H217" t="n">
-        <v>41.04999923706055</v>
+        <v>35.81000137329102</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>750030</v>
+        <v>750020</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>EMIGRAÇÃO</t>
+          <t>MOÇAMBIQUE</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8905,7 +8925,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>PPM</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8914,13 +8934,13 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>44</v>
+        <v>2496</v>
       </c>
       <c r="H218" t="n">
-        <v>0.239999994635582</v>
+        <v>41.04999923706055</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -8944,7 +8964,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>CDS</t>
+          <t>PPM</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8953,10 +8973,10 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>846</v>
+        <v>44</v>
       </c>
       <c r="H219" t="n">
-        <v>4.599999904632568</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -8983,7 +9003,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FEC</t>
+          <t>CDS</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8992,10 +9012,10 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>485</v>
+        <v>846</v>
       </c>
       <c r="H220" t="n">
-        <v>2.640000104904175</v>
+        <v>4.599999904632568</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -9022,7 +9042,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>MDP</t>
+          <t>FEC</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -9031,10 +9051,10 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2025</v>
+        <v>485</v>
       </c>
       <c r="H221" t="n">
-        <v>11.01000022888184</v>
+        <v>2.640000104904175</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -9061,7 +9081,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>PPD</t>
+          <t>MDP</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -9070,13 +9090,13 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>8385</v>
+        <v>2025</v>
       </c>
       <c r="H222" t="n">
-        <v>45.61000061035156</v>
+        <v>11.01000022888184</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -9100,21 +9120,60 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
+          <t>PPD</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>8385</v>
+      </c>
+      <c r="H223" t="n">
+        <v>45.61000061035156</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>750030</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>EMIGRAÇÃO</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>25/04/1975</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G223" t="n">
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
         <v>6327</v>
       </c>
-      <c r="H223" t="n">
+      <c r="H224" t="n">
         <v>34.40999984741211</v>
       </c>
-      <c r="I223" t="n">
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
